--- a/Rózsahegyi Ákos/Testing/TeszteljükLe.xlsx
+++ b/Rózsahegyi Ákos/Testing/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RozsahegyiAkos\Desktop\github2023\KA_12D.github.io\Rózsahegyi Ákos\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F8BCAB-6BC3-42B3-BC77-E088856825CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46789CD0-BDA9-4334-8590-CBB559E870A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="290">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Első lépésként válassza ki a Start  gombot, majd az alkalmazáslista Számológép elemét.</t>
-  </si>
-  <si>
-    <t>(csatolt screeenshot)</t>
   </si>
   <si>
     <t>A számológép megnyílik</t>
@@ -957,25 +954,7 @@
  Test metrics</t>
   </si>
   <si>
-    <t>képek\6.png</t>
-  </si>
-  <si>
-    <t>képek\7.png</t>
-  </si>
-  <si>
-    <t>képek\8.png</t>
-  </si>
-  <si>
     <t>Nyisson meg egy számológépet normál üzemmódban és egy másikat tudományos üzemmódban. Írja be mindkét számológépbe a következő egyenletet: 75*0,8+60*0,3</t>
-  </si>
-  <si>
-    <t>képek\9.png</t>
-  </si>
-  <si>
-    <t>képek\altalanos.png</t>
-  </si>
-  <si>
-    <t>képek\tudomanyos.png</t>
   </si>
   <si>
     <t>78 kell legyen mindkét üzemmódban az eredmény</t>
@@ -1000,6 +979,42 @@
   </si>
   <si>
     <t>smoke_kepek\7.png</t>
+  </si>
+  <si>
+    <t>kepek\1.png</t>
+  </si>
+  <si>
+    <t>kepek\2.png</t>
+  </si>
+  <si>
+    <t>kepek\3.png</t>
+  </si>
+  <si>
+    <t>kepek\4.png</t>
+  </si>
+  <si>
+    <t>kepek\5.png</t>
+  </si>
+  <si>
+    <t>kepek\elem.png</t>
+  </si>
+  <si>
+    <t>kepek\6.png</t>
+  </si>
+  <si>
+    <t>kepek\7.png</t>
+  </si>
+  <si>
+    <t>kepek\8.png</t>
+  </si>
+  <si>
+    <t>kepek\9.png</t>
+  </si>
+  <si>
+    <t>kepek\altalanos.png</t>
+  </si>
+  <si>
+    <t>kepek\tudomanyos.png</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1192,6 +1207,12 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1267,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1333,7 +1354,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1346,7 +1366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1372,6 +1391,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1415,7 +1437,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="hu-HU" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1579,7 +1601,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="hu-HU" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1660,7 +1682,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="hu-HU" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1753,7 +1775,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="hu-HU" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1917,7 +1939,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="hu-HU" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1998,7 +2020,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="hu-HU" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2336,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2386,23 +2408,23 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,23 +2434,23 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2438,23 +2460,23 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,23 +2486,23 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,23 +2512,23 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,23 +2538,23 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,20 +2564,20 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>270</v>
+      <c r="G8" s="49" t="s">
+        <v>284</v>
       </c>
       <c r="H8" s="4">
         <v>3</v>
@@ -2568,20 +2590,20 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="F9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>271</v>
+      <c r="G9" s="49" t="s">
+        <v>285</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -2594,20 +2616,20 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="F10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>272</v>
+      <c r="G10" s="49" t="s">
+        <v>286</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
@@ -2620,23 +2642,23 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="F11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="G11" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,28 +2668,28 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>275</v>
+      <c r="F12" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="43" t="s">
-        <v>276</v>
+      <c r="G13" s="49" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3659,18 +3681,18 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{FA9150B6-8A28-46AD-8435-B64C7919E4AA}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{DDD8ECE4-22FA-4433-8252-5210E446F5CB}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{357C146A-A104-4703-BAAC-A419BD8A9800}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{472CA8CD-74FF-430E-8060-CF75694BCE7D}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{6DC067CC-44DF-42E9-8075-D215329EAEF2}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{78F249DC-D226-42DF-87A1-0A75B6F37CE0}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{234EB45A-8553-4EB7-B3C7-4E2188040090}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{0D2E9D2C-A259-4BDF-9D5F-D722C2D1FE27}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{23BA2009-E030-4DDD-A0F6-23DC8DB79C24}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{F777A7DD-BD9B-46D7-901A-3A2606FBA075}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{F4EC9441-9DD5-44A4-B20B-E537373921E4}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{044E9570-12BC-4180-88B5-A2B1669BEC95}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{88CBDD07-9A37-4490-B2BF-217E8BDE5F2B}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{A2784342-D871-430F-9442-7E33B898CBC1}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{23FA8EC4-A555-41BE-831C-873102370D7A}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{3519B981-508A-481E-B966-9FFD0C11CD58}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{5C7A3CA4-21C9-48F0-994F-E8CF67378B65}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{67E38BBC-9AA0-4FA9-AFE4-20A9A9EA40D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId13"/>
@@ -3697,19 +3719,19 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>239</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
@@ -3735,19 +3757,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>243</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>244</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -3773,19 +3795,19 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="C3" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="D3" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="41" t="s">
         <v>248</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>249</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
@@ -3811,19 +3833,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="C4" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="E4" s="41" t="s">
         <v>253</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>254</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -3849,19 +3871,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="C5" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="41" t="s">
         <v>258</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>259</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
@@ -3887,19 +3909,19 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="C6" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="41" t="s">
         <v>263</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>264</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
@@ -3925,19 +3947,19 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="E7" s="41" t="s">
         <v>268</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>269</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
@@ -31794,82 +31816,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -31885,7 +31907,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31928,23 +31950,23 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>54</v>
+      <c r="G2" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -31954,23 +31976,23 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="G3" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="54" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -31980,23 +32002,23 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -32006,23 +32028,23 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="56" t="s">
+      <c r="F5" s="53" t="s">
         <v>60</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -32032,23 +32054,23 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>60</v>
+      <c r="F6" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -32058,23 +32080,23 @@
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -32084,23 +32106,23 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="55" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -32134,156 +32156,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="B5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="B8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="18"/>
       <c r="C12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -32320,108 +32342,108 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>102</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="D62" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="E62" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="F62" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="G62" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="H62" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="I62" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="J62" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="J62" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -32435,71 +32457,71 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -32513,7 +32535,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -32527,135 +32549,135 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -32669,123 +32691,123 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -32816,91 +32838,91 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -32926,90 +32948,90 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -33027,35 +33049,35 @@
         <v>3012345678</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>187</v>
       </c>
       <c r="C7" s="10">
         <v>2000</v>
@@ -33072,70 +33094,70 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>187</v>
       </c>
       <c r="C11" s="10">
         <v>2000</v>
@@ -33152,52 +33174,52 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -33215,11 +33237,14 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="50.140625" customWidth="1"/>
     <col min="6" max="6" width="106.28515625" customWidth="1"/>
@@ -33227,96 +33252,96 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>164</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="34">
         <v>1</v>
@@ -33328,41 +33353,41 @@
         <v>909999999</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>187</v>
       </c>
       <c r="D7" s="34">
         <v>8000</v>
@@ -33370,79 +33395,79 @@
       <c r="E7" s="10">
         <v>9985</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>210</v>
+      <c r="F7" s="57" t="s">
+        <v>209</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="E8" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>214</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -33467,27 +33492,27 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>219</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="C2" s="37">
         <f>100000</f>
@@ -33504,10 +33529,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C3" s="37">
         <v>699999</v>
@@ -33523,10 +33548,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="37">
         <v>240000</v>
@@ -33541,10 +33566,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C5" s="37">
         <f>749500*1.27</f>
@@ -33563,10 +33588,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="C6" s="37">
         <f>380000*1.27</f>
@@ -33582,10 +33607,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="C7" s="37">
         <v>319000</v>
@@ -33600,10 +33625,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C8" s="37">
         <v>380000</v>
@@ -33618,10 +33643,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="37">
         <f>490000*1.27</f>

--- a/Rózsahegyi Ákos/Testing/TeszteljükLe.xlsx
+++ b/Rózsahegyi Ákos/Testing/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RozsahegyiAkos\Desktop\github2023\KA_12D.github.io\Rózsahegyi Ákos\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46789CD0-BDA9-4334-8590-CBB559E870A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C769D87E-052E-4926-95D2-1A5BFF7CD042}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -31906,8 +31906,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32133,7 +32133,7 @@
     <hyperlink ref="G5" r:id="rId4" xr:uid="{B7625B02-78F1-44E3-A81D-31600B7FE29A}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{B6A48D7E-ECAD-4AC1-961D-1E734944934A}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{E9466799-47AA-4EFB-AA77-40DBDC5DF07F}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{64C0EC0C-BD7C-4DA1-A152-77BF01F1C99B}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{F3D1645D-23F2-44DF-93E2-66BE8D2E7975}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33237,7 +33237,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
